--- a/doc/框架配置信息说明.xlsx
+++ b/doc/框架配置信息说明.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED71F1EE-6A40-42AD-8DA1-FDA4AFDD2F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="框架配置信息" sheetId="1" r:id="rId1"/>
@@ -16,13 +15,14 @@
     <sheet name="运行时对象" sheetId="6" r:id="rId6"/>
     <sheet name="SequenceStep类型定义" sheetId="7" r:id="rId7"/>
     <sheet name="内置变量定义" sheetId="8" r:id="rId8"/>
+    <sheet name="OI扩展参数说明" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="380">
   <si>
     <t>SequenceManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -853,127 +853,643 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>RuntimeHash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前运行实例的哈希</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataMaintain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DatabaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlatformEncoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前实例使用库的路径，多个时使用分号分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestGenReportInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestRunReportInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EngineQueueFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EngineSyncMessenger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageReceiveTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatusUploadInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectionTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SyncTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestGenTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbortTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessengerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileEncoding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotNetVersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET的运行版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnablePerformanceMonitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能运行时性能监视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时对象名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断点的调用堆栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebugMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddBreakPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteBreakPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPointHitted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepInto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunToEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断点命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走进子step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略断点执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求变量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回请求的变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>BreakPoints里放所有添加的断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPoints里放所有删除的断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPoints里放当前命中的断点，只有一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WatchData.Names里放对应的请求变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WatchData里放完整的Names和Values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshWatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新watch列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新列表返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始后执行返回值，则值都是N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时对象更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeDelegage.RuntimeObjUpdatedAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepOver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WatchData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试监视数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待监视的变量表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试时即时计算的表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequenceIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否涉及Slave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否涉及Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infoName:extraParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeHash:无参数。返回当前TestInstance的运行时Hash。string类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestName:无参数。返回当前运行实例的名称。string类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceStep类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TryFinallyBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceCall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiThreadBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimerBlock</t>
+  </si>
+  <si>
+    <t>BatchBlock</t>
+  </si>
+  <si>
+    <t>实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function为指定的函数，且不包含SubStepCollection的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function为指定的函数，包含SubStepCollection的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为空且不能配置，连带在下面创建两个空的Step，包含SubStepCollection的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为空，SubSteps依次为每个分支，每个分支的Function里包含返回值为bool的函数。相邻的分支为Else if 关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionLoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function必须返回bool类型，LoopVariable定义在LoopCounter中。包含SubStepCollection的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionStatement</t>
+  </si>
+  <si>
+    <t>SubSteps不能为ConditionStatement类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为空，SubSteps都是ConditionStatement类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function必须是返回bool类型的Step，SubSteps可以是任意类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为返回bool类型的step，substeps是执行的step。如果分支未走进去，则对应的step的结果为Skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为null，且只有两个SubStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为返回bool类型的函数，SubSteps可以是任意类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为指定函数，LoopCounter的MaxValue为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为指定函数，SubSteps为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullTrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个Step执行结束后的返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始和未开始都可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停成功后返回状态及WatchData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddRuntimeObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectType:param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElapsedTime:参数0为SessionId。返回double类型的运行时长。double类型，单位为毫秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeState:参数0为SessionId。返回RuntimeState类型的状态信息。RuntimeState类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebugHandle：无参数。返回当前运行实例的调试句柄。IDebuggerHandle类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPointHitted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeDelegate.BreakPointHittedAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeObjectUpdated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPoint：额外参数；0.断点所在的CallStack(ICallStack类型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation:额外参数；0.对应的SequenceId(int),1.对应的表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WatchData:额外参数；0.对应的SequenceId(int)，如果是SequenceGroup或者TestProject级变量，1.watch变量名称开始以.分割的属性字符串，例如var1.Property1(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumericFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点等小数类型转换为字符串的格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotNetRootDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET核心库根目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbortTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止超时时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpressionOperators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpressionCalculators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary&lt;string, ExpressionOperatorInfo&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式符号到符号信息的映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpressionCalculatorInfo[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式计算类的列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParameterCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeDelegate.TestInstanceStatusAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkspaceDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestflowHome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PlatformLibDir</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RuntimeHash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前运行实例的哈希</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataMaintain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DatabaseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlatformEncoding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前实例使用库的路径，多个时使用分号分割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestGenReportInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestRunReportInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EngineQueueFormat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EngineSyncMessenger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MessageReceiveTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatusUploadInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConnectionTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SyncTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StopTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestGenTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AbortTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MessengerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModelVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FileEncoding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DotNetVersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.NET的运行版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
+    <t>SequencePath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -981,514 +1497,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EnablePerformanceMonitor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使能运行时性能监视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行时对象名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreakPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行时断点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断点的调用堆栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MessageName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DebugMessage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddBreakPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeleteBreakPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreakPointHitted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StepInto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Continue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunToEnd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequestValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加断点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除断点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断点命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到下一步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走进子step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略断点执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求变量值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回请求的变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>BreakPoints里放所有添加的断点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreakPoints里放所有删除的断点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreakPoints里放当前命中的断点，只有一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WatchData.Names里放对应的请求变量名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WatchData里放完整的Names和Values</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefreshWatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新watch列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新列表返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始后执行返回值，则值都是N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行时对象更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeDelegage.RuntimeObjUpdatedAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StepOver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WatchData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试监视数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待监视的变量表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试时即时计算的表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evaluation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sequenceIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否涉及Slave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否涉及Session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infoName:extraParam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeHash:无参数。返回当前TestInstance的运行时Hash。string类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkspaceDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestName:无参数。返回当前运行实例的名称。string类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SequenceStep类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Execution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionBlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TryFinallyBlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SequenceCall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MultiThreadBlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimerBlock</t>
-  </si>
-  <si>
-    <t>BatchBlock</t>
-  </si>
-  <si>
-    <t>实现类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SequenceStep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function为指定的函数，且不包含SubStepCollection的定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function为指定的函数，包含SubStepCollection的定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为空且不能配置，连带在下面创建两个空的Step，包含SubStepCollection的定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为空，SubSteps依次为每个分支，每个分支的Function里包含返回值为bool的函数。相邻的分支为Else if 关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionLoop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function必须返回bool类型，LoopVariable定义在LoopCounter中。包含SubStepCollection的定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionStatement</t>
-  </si>
-  <si>
-    <t>SubSteps不能为ConditionStatement类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为空，SubSteps都是ConditionStatement类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function必须是返回bool类型的Step，SubSteps可以是任意类型。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为返回bool类型的step，substeps是执行的step。如果分支未走进去，则对应的step的结果为Skip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为null，且只有两个SubStep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为返回bool类型的函数，SubSteps可以是任意类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为指定函数，LoopCounter的MaxValue为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为指定函数，SubSteps为null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FullTrace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一个Step执行结束后的返回值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始和未开始都可以使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停成功后返回状态及WatchData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddRuntimeObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>objectType:param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElapsedTime:参数0为SessionId。返回double类型的运行时长。double类型，单位为毫秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeState:参数0为SessionId。返回RuntimeState类型的状态信息。RuntimeState类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DebugHandle：无参数。返回当前运行实例的调试句柄。IDebuggerHandle类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreakPointHitted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeDelegate.BreakPointHittedAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeObjectUpdated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreakPoint：额外参数；0.断点所在的CallStack(ICallStack类型)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evaluation:额外参数；0.对应的SequenceId(int),1.对应的表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WatchData:额外参数；0.对应的SequenceId(int)，如果是SequenceGroup或者TestProject级变量，1.watch变量名称开始以.分割的属性字符串，例如var1.Property1(string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumericFormat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点等小数类型转换为字符串的格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DotNetRootDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.NET核心库根目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AbortTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终止超时时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestflowHome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpressionOperators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpressionCalculators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dictionary&lt;string, ExpressionOperatorInfo&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表达式符号到符号信息的映射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpressionCalculatorInfo[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表达式计算类的列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParameterCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeDelegate.TestInstanceStatusAction</t>
+    <t>当前序列的路径，如果是序列组则只有一个元素，如果是测试工程，则分别为测试工程目录、按照索引号的序列组路径。如果未保存则为string.Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOperationPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extraParams[0]:string[]，包含所有当前可达的路径，依次为序列组当前目录、TestFlowWorkspace、TestFlow Lib、TestFlow根目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOIConfigPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowOiConfigPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static Type ConfigPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI配置窗体的类，该类的值和ConfigPanelType属性的值相同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1623,7 +1675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1715,10 +1767,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1733,6 +1785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1751,7 +1804,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1826,23 +1879,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1878,23 +1914,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2070,11 +2089,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2121,19 +2140,19 @@
       <c r="K1" s="27"/>
       <c r="L1" s="28"/>
       <c r="M1" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N1" s="27"/>
       <c r="O1" s="28"/>
       <c r="P1" s="26" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q1" s="27"/>
       <c r="R1" s="28"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>96</v>
@@ -2151,7 +2170,7 @@
         <v>72</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>36</v>
@@ -2160,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K2" s="24" t="s">
         <v>37</v>
@@ -2169,27 +2188,27 @@
         <v>27</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N2" s="24" t="s">
         <v>206</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P2" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>359</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>96</v>
@@ -2198,7 +2217,7 @@
         <v>130</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>108</v>
@@ -2207,7 +2226,7 @@
         <v>109</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>36</v>
@@ -2216,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>37</v>
@@ -2225,24 +2244,24 @@
         <v>28</v>
       </c>
       <c r="P3" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q3" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="Q3" s="24" t="s">
-        <v>363</v>
-      </c>
       <c r="R3" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>209</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>210</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>205</v>
@@ -2254,16 +2273,16 @@
         <v>167</v>
       </c>
       <c r="G4" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>359</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>362</v>
-      </c>
       <c r="J4" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>204</v>
@@ -2274,16 +2293,16 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>208</v>
+        <v>367</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>165</v>
@@ -2292,16 +2311,16 @@
         <v>166</v>
       </c>
       <c r="G5" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>363</v>
-      </c>
       <c r="I5" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K5" s="24" t="s">
         <v>39</v>
@@ -2312,16 +2331,16 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D6" s="23" t="s">
-        <v>296</v>
+        <v>365</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K6" s="24" t="s">
         <v>46</v>
@@ -2332,7 +2351,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D7" s="23" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>206</v>
@@ -2341,7 +2360,7 @@
         <v>207</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K7" s="24" t="s">
         <v>46</v>
@@ -2352,16 +2371,16 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D8" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="F8" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>236</v>
-      </c>
       <c r="J8" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K8" s="24" t="s">
         <v>46</v>
@@ -2372,16 +2391,16 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D9" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>354</v>
-      </c>
       <c r="J9" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K9" s="24" t="s">
         <v>52</v>
@@ -2391,8 +2410,17 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D10" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>370</v>
+      </c>
       <c r="J10" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>52</v>
@@ -2403,7 +2431,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J11" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K11" s="24" t="s">
         <v>81</v>
@@ -2414,7 +2442,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J12" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K12" s="24" t="s">
         <v>81</v>
@@ -2425,7 +2453,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J13" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K13" s="24" t="s">
         <v>81</v>
@@ -2436,7 +2464,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J14" s="23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K14" s="24" t="s">
         <v>179</v>
@@ -2447,7 +2475,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J15" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>36</v>
@@ -2458,7 +2486,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J16" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>36</v>
@@ -2469,13 +2497,13 @@
     </row>
     <row r="17" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J17" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K17" s="24" t="s">
         <v>36</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.15">
@@ -2491,46 +2519,46 @@
     </row>
     <row r="19" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J19" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="L19" s="25" t="s">
         <v>240</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="L19" s="25" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="20" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J20" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="L20" s="25" t="s">
         <v>349</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="21" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J21" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="L21" s="25" t="s">
         <v>359</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="22" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J22" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="K22" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="K22" s="24" t="s">
-        <v>363</v>
-      </c>
       <c r="L22" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -2549,11 +2577,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2752,35 +2780,35 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B18" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" t="s">
         <v>349</v>
-      </c>
-      <c r="B18" t="s">
-        <v>350</v>
-      </c>
-      <c r="C18" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" t="s">
         <v>352</v>
-      </c>
-      <c r="B19" t="s">
-        <v>353</v>
-      </c>
-      <c r="C19" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C20" t="s">
         <v>355</v>
-      </c>
-      <c r="B20" t="s">
-        <v>356</v>
-      </c>
-      <c r="C20" t="s">
-        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2791,11 +2819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2896,13 +2924,13 @@
       <c r="A7" s="29"/>
       <c r="B7" s="29"/>
       <c r="C7" s="30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2911,7 +2939,7 @@
       <c r="C8" s="30"/>
       <c r="D8" s="29"/>
       <c r="E8" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2920,74 +2948,75 @@
       <c r="C9" s="30"/>
       <c r="D9" s="29"/>
       <c r="E9" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>159</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="22"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" s="22"/>
-      <c r="D15" s="29"/>
+      <c r="D15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D14:D15"/>
+  <mergeCells count="11">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="B6:B13"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="A6:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2996,10 +3025,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3103,7 +3132,7 @@
         <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D7" t="s">
         <v>147</v>
@@ -3187,7 +3216,7 @@
         <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D13" t="s">
         <v>202</v>
@@ -3195,13 +3224,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B14" t="s">
         <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D14" t="s">
         <v>203</v>
@@ -3209,13 +3238,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" t="s">
         <v>280</v>
-      </c>
-      <c r="C15" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3226,7 +3255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -3257,32 +3286,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="35"/>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="35"/>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="34"/>
+      <c r="K1" s="33"/>
       <c r="L1" s="35"/>
-      <c r="M1" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
+      <c r="M1" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
     </row>
@@ -3324,16 +3353,16 @@
         <v>128</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -3378,16 +3407,16 @@
         <v>122</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N3" s="15" t="b">
         <v>1</v>
       </c>
       <c r="O3" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
@@ -3423,7 +3452,7 @@
       </c>
       <c r="O4" s="29"/>
       <c r="P4" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -3462,16 +3491,16 @@
         <v>124</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N5" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O5" s="29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R5" s="12"/>
     </row>
@@ -3508,7 +3537,7 @@
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
@@ -3542,16 +3571,16 @@
         <v>157</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N7" s="12" t="b">
         <v>0</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
@@ -3575,13 +3604,13 @@
         <v>100</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N8" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
@@ -3597,13 +3626,13 @@
         <v>102</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N9" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
@@ -3624,13 +3653,13 @@
         <v>153</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N10" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
@@ -3649,13 +3678,13 @@
         <v>154</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N11" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
@@ -3674,16 +3703,16 @@
         <v>155</v>
       </c>
       <c r="M12" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N12" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
@@ -3702,10 +3731,10 @@
         <v>0</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
@@ -3713,16 +3742,16 @@
         <v>197</v>
       </c>
       <c r="M14" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N14" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
@@ -3732,22 +3761,22 @@
         <v>0</v>
       </c>
       <c r="O15" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="E16" s="32"/>
       <c r="M16" s="32" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N16" s="22" t="b">
         <v>1</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.15">
@@ -3757,19 +3786,11 @@
         <v>0</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O5:O6"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J3:J7"/>
@@ -3783,6 +3804,14 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="E3:E9"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3791,7 +3820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3809,19 +3838,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" t="s">
         <v>291</v>
       </c>
-      <c r="D1" t="s">
-        <v>292</v>
-      </c>
       <c r="E1" s="38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
@@ -3833,59 +3862,59 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" t="s">
         <v>248</v>
-      </c>
-      <c r="C2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" t="s">
         <v>283</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>284</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" t="s">
         <v>285</v>
-      </c>
-      <c r="D3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" t="s">
         <v>289</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>287</v>
-      </c>
-      <c r="C4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F4" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -3916,139 +3945,139 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1" t="s">
         <v>307</v>
-      </c>
-      <c r="C1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" t="s">
         <v>308</v>
-      </c>
-      <c r="C7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" t="s">
         <v>306</v>
       </c>
-      <c r="B10" t="s">
-        <v>308</v>
-      </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4059,7 +4088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4075,30 +4104,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" t="s">
         <v>326</v>
-      </c>
-      <c r="B1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
         <v>330</v>
       </c>
-      <c r="C2" t="s">
-        <v>332</v>
-      </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -4106,4 +4135,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="34.875" customWidth="1"/>
+    <col min="3" max="3" width="68.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="38"/>
+      <c r="B3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/框架配置信息说明.xlsx
+++ b/doc/框架配置信息说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="框架配置信息" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="385">
   <si>
     <t>SequenceManager</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -997,543 +997,563 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebugMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddBreakPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteBreakPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPointHitted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepInto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunToEnd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RequestValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断点命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走进子step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略断点执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求变量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回请求的变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>BreakPoints里放所有添加的断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPoints里放所有删除的断点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPoints里放当前命中的断点，只有一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WatchData.Names里放对应的请求变量名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WatchData里放完整的Names和Values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefreshWatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新watch列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新列表返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始后执行返回值，则值都是N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时对象更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeDelegage.RuntimeObjUpdatedAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepOver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WatchData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试监视数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试时即时计算的表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequenceIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否涉及Slave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否涉及Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>infoName:extraParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeHash:无参数。返回当前TestInstance的运行时Hash。string类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestName:无参数。返回当前运行实例的名称。string类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceStep类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TryFinallyBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceCall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiThreadBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimerBlock</t>
+  </si>
+  <si>
+    <t>BatchBlock</t>
+  </si>
+  <si>
+    <t>实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function为指定的函数，且不包含SubStepCollection的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function为指定的函数，包含SubStepCollection的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为空且不能配置，连带在下面创建两个空的Step，包含SubStepCollection的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为空，SubSteps依次为每个分支，每个分支的Function里包含返回值为bool的函数。相邻的分支为Else if 关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionLoop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function必须返回bool类型，LoopVariable定义在LoopCounter中。包含SubStepCollection的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionStatement</t>
+  </si>
+  <si>
+    <t>SubSteps不能为ConditionStatement类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为空，SubSteps都是ConditionStatement类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function必须是返回bool类型的Step，SubSteps可以是任意类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为返回bool类型的step，substeps是执行的step。如果分支未走进去，则对应的step的结果为Skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为null，且只有两个SubStep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为返回bool类型的函数，SubSteps可以是任意类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为指定函数，LoopCounter的MaxValue为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function为指定函数，SubSteps为null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullTrace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个Step执行结束后的返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始和未开始都可以使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停成功后返回状态及WatchData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddRuntimeObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectType:param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElapsedTime:参数0为SessionId。返回double类型的运行时长。double类型，单位为毫秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeState:参数0为SessionId。返回RuntimeState类型的状态信息。RuntimeState类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebugHandle：无参数。返回当前运行实例的调试句柄。IDebuggerHandle类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPointHitted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeDelegate.BreakPointHittedAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeObjectUpdated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreakPoint：额外参数；0.断点所在的CallStack(ICallStack类型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation:额外参数；0.对应的SequenceId(int),1.对应的表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WatchData:额外参数；0.对应的SequenceId(int)，如果是SequenceGroup或者TestProject级变量，1.watch变量名称开始以.分割的属性字符串，例如var1.Property1(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumericFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点等小数类型转换为字符串的格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DotNetRootDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET核心库根目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbortTimeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止超时时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpressionOperators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpressionCalculators</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary&lt;string, ExpressionOperatorInfo&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式符号到符号信息的映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpressionCalculatorInfo[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式计算类的列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParameterCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeDelegate.TestInstanceStatusAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkspaceDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestflowHome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlatformLibDir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequencePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前序列的路径，如果是序列组则只有一个元素，如果是测试工程，则分别为测试工程目录、按照索引号的序列组路径。如果未保存则为string.Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOperationPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展参数说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extraParams[0]:string[]，包含所有当前可达的路径，依次为序列组当前目录、TestFlowWorkspace、TestFlow Lib、TestFlow根目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOIConfigPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowOiConfigPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static Type ConfigPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OI配置窗体的类，该类的值和ConfigPanelType属性的值相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>扩展参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行时断点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>断点的调用堆栈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MessageName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DebugMessage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddBreakPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeleteBreakPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreakPointHitted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StepInto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Continue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunToEnd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RequestValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加断点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除断点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>断点命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到下一步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走进子step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略断点执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求变量值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回请求的变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>BreakPoints里放所有添加的断点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreakPoints里放所有删除的断点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreakPoints里放当前命中的断点，只有一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WatchData.Names里放对应的请求变量名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WatchData里放完整的Names和Values</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefreshWatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新watch列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新列表返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始后执行返回值，则值都是N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行时对象更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeDelegage.RuntimeObjUpdatedAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StepOver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WatchData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试监视数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>待监视的变量表达式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调试表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试时即时计算的表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evaluation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sequenceIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否涉及Slave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否涉及Session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>infoName:extraParam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeHash:无参数。返回当前TestInstance的运行时Hash。string类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestName:无参数。返回当前运行实例的名称。string类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SequenceStep类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Execution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionBlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TryFinallyBlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SequenceCall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MultiThreadBlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimerBlock</t>
-  </si>
-  <si>
-    <t>BatchBlock</t>
-  </si>
-  <si>
-    <t>实现类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SequenceStep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function为指定的函数，且不包含SubStepCollection的定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function为指定的函数，包含SubStepCollection的定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为空且不能配置，连带在下面创建两个空的Step，包含SubStepCollection的定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为空，SubSteps依次为每个分支，每个分支的Function里包含返回值为bool的函数。相邻的分支为Else if 关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionLoop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function必须返回bool类型，LoopVariable定义在LoopCounter中。包含SubStepCollection的定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约束规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConditionStatement</t>
-  </si>
-  <si>
-    <t>SubSteps不能为ConditionStatement类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为空，SubSteps都是ConditionStatement类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function必须是返回bool类型的Step，SubSteps可以是任意类型。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为返回bool类型的step，substeps是执行的step。如果分支未走进去，则对应的step的结果为Skip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为null，且只有两个SubStep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为返回bool类型的函数，SubSteps可以是任意类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为指定函数，LoopCounter的MaxValue为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function为指定函数，SubSteps为null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecordLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FullTrace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一个Step执行结束后的返回值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始和未开始都可以使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂停成功后返回状态及WatchData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddRuntimeObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>objectType:param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElapsedTime:参数0为SessionId。返回double类型的运行时长。double类型，单位为毫秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeState:参数0为SessionId。返回RuntimeState类型的状态信息。RuntimeState类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DebugHandle：无参数。返回当前运行实例的调试句柄。IDebuggerHandle类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreakPointHitted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeDelegate.BreakPointHittedAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeObjectUpdated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BreakPoint：额外参数；0.断点所在的CallStack(ICallStack类型)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Evaluation:额外参数；0.对应的SequenceId(int),1.对应的表达式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WatchData:额外参数；0.对应的SequenceId(int)，如果是SequenceGroup或者TestProject级变量，1.watch变量名称开始以.分割的属性字符串，例如var1.Property1(string)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NumericFormat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点等小数类型转换为字符串的格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DotNetRootDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.NET核心库根目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AbortTimeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终止超时时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpressionOperators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpressionCalculators</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dictionary&lt;string, ExpressionOperatorInfo&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表达式符号到符号信息的映射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpressionCalculatorInfo[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表达式计算类的列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParameterCheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RuntimeDelegate.TestInstanceStatusAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkspaceDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestflowHome</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlatformLibDir</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SequencePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前序列的路径，如果是序列组则只有一个元素，如果是测试工程，则分别为测试工程目录、按照索引号的序列组路径。如果未保存则为string.Empty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOperationPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展参数说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extraParams[0]:string[]，包含所有当前可达的路径，依次为序列组当前目录、TestFlowWorkspace、TestFlow Lib、TestFlow根目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOIConfigPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowOiConfigPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>static Type ConfigPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OI配置窗体的类，该类的值和ConfigPanelType属性的值相同</t>
+    <t>CurrentStepInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前执行步骤的所有信息，包括序列信息和执行信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlobalExecutionInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局执行信息，包括所有序列步骤的执行信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1746,6 +1766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1767,10 +1788,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1785,7 +1806,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2119,36 +2139,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="26" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="26" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="26" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="26" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
@@ -2197,13 +2217,13 @@
         <v>214</v>
       </c>
       <c r="P2" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>356</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -2244,13 +2264,13 @@
         <v>28</v>
       </c>
       <c r="P3" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q3" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="Q3" s="24" t="s">
-        <v>360</v>
-      </c>
       <c r="R3" s="25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -2273,13 +2293,13 @@
         <v>167</v>
       </c>
       <c r="G4" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>356</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>359</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>219</v>
@@ -2302,7 +2322,7 @@
         <v>45</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>165</v>
@@ -2311,13 +2331,13 @@
         <v>166</v>
       </c>
       <c r="G5" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="H5" s="24" t="s">
-        <v>360</v>
-      </c>
       <c r="I5" s="25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>220</v>
@@ -2331,7 +2351,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D6" s="23" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>238</v>
@@ -2351,7 +2371,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D7" s="23" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>206</v>
@@ -2391,13 +2411,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D9" s="23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>225</v>
@@ -2411,13 +2431,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="D10" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>369</v>
+        <v>365</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>366</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>226</v>
@@ -2475,7 +2495,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J15" s="23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>36</v>
@@ -2530,35 +2550,35 @@
     </row>
     <row r="20" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J20" s="23" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J21" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="L21" s="25" t="s">
         <v>356</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="22" spans="10:12" x14ac:dyDescent="0.15">
       <c r="J22" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="K22" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="K22" s="24" t="s">
-        <v>360</v>
-      </c>
       <c r="L22" s="25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2780,35 +2800,35 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C19" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -2854,16 +2874,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="30" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -2871,18 +2891,18 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="31" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2893,9 +2913,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
@@ -2904,10 +2924,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -2921,83 +2941,83 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D7" s="29" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -3006,6 +3026,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="A6:A14"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C2:C3"/>
@@ -3013,10 +3037,6 @@
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="B6:B14"/>
-    <mergeCell ref="A6:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3132,7 +3152,7 @@
         <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D7" t="s">
         <v>147</v>
@@ -3216,7 +3236,7 @@
         <v>190</v>
       </c>
       <c r="C13" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D13" t="s">
         <v>202</v>
@@ -3224,13 +3244,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B14" t="s">
         <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D14" t="s">
         <v>203</v>
@@ -3238,13 +3258,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3286,32 +3306,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
       <c r="J1" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
       <c r="S1" s="13"/>
       <c r="T1" s="13"/>
     </row>
@@ -3353,16 +3373,16 @@
         <v>128</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N2" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>269</v>
       </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
@@ -3370,7 +3390,7 @@
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -3382,13 +3402,13 @@
       <c r="D3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="38" t="s">
         <v>86</v>
       </c>
       <c r="H3" s="15" t="b">
@@ -3397,7 +3417,7 @@
       <c r="I3" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="33" t="s">
         <v>90</v>
       </c>
       <c r="K3" s="15" t="s">
@@ -3406,21 +3426,21 @@
       <c r="L3" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="32" t="s">
-        <v>251</v>
+      <c r="M3" s="33" t="s">
+        <v>249</v>
       </c>
       <c r="N3" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="O3" s="29" t="s">
-        <v>259</v>
+      <c r="O3" s="30" t="s">
+        <v>257</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="15" t="s">
         <v>44</v>
       </c>
@@ -3430,35 +3450,35 @@
       <c r="D4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="H4" s="15" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="15" t="s">
         <v>119</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="32"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="O4" s="29"/>
+      <c r="O4" s="30"/>
       <c r="P4" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>105</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -3470,11 +3490,11 @@
       <c r="D5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="37" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="38" t="s">
         <v>86</v>
       </c>
       <c r="H5" s="15" t="b">
@@ -3483,29 +3503,29 @@
       <c r="I5" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="32"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="15" t="s">
         <v>120</v>
       </c>
       <c r="L5" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="M5" s="32" t="s">
-        <v>252</v>
+      <c r="M5" s="33" t="s">
+        <v>250</v>
       </c>
       <c r="N5" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="O5" s="29" t="s">
-        <v>260</v>
+      <c r="O5" s="30" t="s">
+        <v>258</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="15" t="s">
         <v>44</v>
       </c>
@@ -3515,35 +3535,35 @@
       <c r="D6" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="15" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="32"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="15" t="s">
         <v>121</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="M6" s="32"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="O6" s="29"/>
+      <c r="O6" s="30"/>
       <c r="P6" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="15" t="s">
         <v>44</v>
       </c>
@@ -3553,7 +3573,7 @@
       <c r="D7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="32"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="15" t="s">
         <v>95</v>
       </c>
@@ -3563,7 +3583,7 @@
       <c r="I7" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="32"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="15" t="s">
         <v>168</v>
       </c>
@@ -3571,16 +3591,16 @@
         <v>157</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N7" s="12" t="b">
         <v>0</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
@@ -3593,7 +3613,7 @@
       <c r="D8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="15" t="s">
         <v>99</v>
       </c>
@@ -3604,18 +3624,18 @@
         <v>100</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N8" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
-      <c r="E9" s="32"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="15" t="s">
         <v>101</v>
       </c>
@@ -3626,18 +3646,18 @@
         <v>102</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N9" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="33" t="s">
         <v>103</v>
       </c>
       <c r="F10" s="15" t="s">
@@ -3653,18 +3673,18 @@
         <v>153</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N10" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="17"/>
-      <c r="E11" s="32"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="15" t="s">
         <v>193</v>
       </c>
@@ -3678,18 +3698,18 @@
         <v>154</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N11" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
-      <c r="E12" s="32"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="15" t="s">
         <v>196</v>
       </c>
@@ -3702,21 +3722,21 @@
       <c r="I12" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="M12" s="32" t="s">
-        <v>257</v>
+      <c r="M12" s="33" t="s">
+        <v>255</v>
       </c>
       <c r="N12" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="E13" s="32"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="15" t="s">
         <v>195</v>
       </c>
@@ -3726,71 +3746,79 @@
       <c r="I13" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="M13" s="32"/>
+      <c r="M13" s="33"/>
       <c r="N13" s="12" t="b">
         <v>0</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="M14" s="32" t="s">
-        <v>275</v>
+      <c r="M14" s="33" t="s">
+        <v>273</v>
       </c>
       <c r="N14" s="12" t="b">
         <v>1</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="E15" s="32"/>
-      <c r="M15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="M15" s="33"/>
       <c r="N15" s="12" t="b">
         <v>0</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="E16" s="32"/>
-      <c r="M16" s="32" t="s">
-        <v>333</v>
+      <c r="E16" s="33"/>
+      <c r="M16" s="33" t="s">
+        <v>330</v>
       </c>
       <c r="N16" s="22" t="b">
         <v>1</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.15">
-      <c r="E17" s="32"/>
-      <c r="M17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="M17" s="33"/>
       <c r="N17" s="22" t="b">
         <v>0</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="O5:O6"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J3:J7"/>
@@ -3804,14 +3832,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="E3:E9"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="O5:O6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3824,7 +3844,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3841,80 +3861,80 @@
         <v>242</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+        <v>288</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>248</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" t="s">
         <v>282</v>
       </c>
-      <c r="B3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C3" t="s">
-        <v>284</v>
-      </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E3" t="s">
-        <v>289</v>
+        <v>380</v>
       </c>
       <c r="F3" t="s">
-        <v>285</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" t="s">
         <v>286</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>284</v>
-      </c>
-      <c r="D4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F4" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3945,139 +3965,139 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" t="s">
         <v>315</v>
       </c>
-      <c r="B4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" t="s">
-        <v>318</v>
-      </c>
       <c r="D4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" t="s">
         <v>306</v>
-      </c>
-      <c r="C8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D8" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" t="s">
         <v>303</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" t="s">
         <v>306</v>
-      </c>
-      <c r="C9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D9" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" t="s">
         <v>306</v>
-      </c>
-      <c r="C10" t="s">
-        <v>322</v>
-      </c>
-      <c r="D10" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -4089,10 +4109,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4104,30 +4124,46 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
         <v>327</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>328</v>
       </c>
-      <c r="C2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" t="s">
-        <v>331</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4141,8 +4177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4154,44 +4190,44 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1" t="s">
         <v>371</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" t="s">
         <v>372</v>
       </c>
-      <c r="C1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="39"/>
+      <c r="B3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="38"/>
-      <c r="B3" t="s">
-        <v>378</v>
-      </c>
       <c r="C3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
